--- a/Code/Results/Cases/Case_1_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9946553178742097</v>
+        <v>1.021026094879971</v>
       </c>
       <c r="D2">
-        <v>1.035928976031299</v>
+        <v>1.036664810600258</v>
       </c>
       <c r="E2">
-        <v>1.001877046617207</v>
+        <v>1.021959839254618</v>
       </c>
       <c r="F2">
-        <v>1.004912088979209</v>
+        <v>1.03403738294863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048607637732252</v>
+        <v>1.035886513026745</v>
       </c>
       <c r="J2">
-        <v>1.016997071149473</v>
+        <v>1.02621988583449</v>
       </c>
       <c r="K2">
-        <v>1.046909466800549</v>
+        <v>1.039457903987421</v>
       </c>
       <c r="L2">
-        <v>1.013310292994961</v>
+        <v>1.024795630086122</v>
       </c>
       <c r="M2">
-        <v>1.016303412173045</v>
+        <v>1.036838008525988</v>
       </c>
       <c r="N2">
-        <v>1.009666599339305</v>
+        <v>1.012816112434217</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9986087350655007</v>
+        <v>1.021854791337615</v>
       </c>
       <c r="D3">
-        <v>1.038647457076207</v>
+        <v>1.037219448476655</v>
       </c>
       <c r="E3">
-        <v>1.004983070909453</v>
+        <v>1.022659515899911</v>
       </c>
       <c r="F3">
-        <v>1.009813477951686</v>
+        <v>1.035133808882917</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049915281801935</v>
+        <v>1.036089687960619</v>
       </c>
       <c r="J3">
-        <v>1.019137399354675</v>
+        <v>1.026686652994488</v>
       </c>
       <c r="K3">
-        <v>1.048808610362063</v>
+        <v>1.039822866599263</v>
       </c>
       <c r="L3">
-        <v>1.01555258700164</v>
+        <v>1.025302163328352</v>
       </c>
       <c r="M3">
-        <v>1.020322314653528</v>
+        <v>1.037742773187417</v>
       </c>
       <c r="N3">
-        <v>1.010381184634427</v>
+        <v>1.012971208126736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00111696928151</v>
+        <v>1.022391422593479</v>
       </c>
       <c r="D4">
-        <v>1.040371458249931</v>
+        <v>1.037578184431018</v>
       </c>
       <c r="E4">
-        <v>1.006959599320935</v>
+        <v>1.023113007619875</v>
       </c>
       <c r="F4">
-        <v>1.012922905219751</v>
+        <v>1.035843857112496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050733105236468</v>
+        <v>1.036219803321524</v>
       </c>
       <c r="J4">
-        <v>1.020492145962964</v>
+        <v>1.026988451592246</v>
       </c>
       <c r="K4">
-        <v>1.050005879247288</v>
+        <v>1.040058164602893</v>
       </c>
       <c r="L4">
-        <v>1.016974747586948</v>
+        <v>1.025630005086323</v>
       </c>
       <c r="M4">
-        <v>1.022867824560353</v>
+        <v>1.038328216743912</v>
       </c>
       <c r="N4">
-        <v>1.010833416872738</v>
+        <v>1.013071460799079</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0021598751485</v>
+        <v>1.022617119026455</v>
       </c>
       <c r="D5">
-        <v>1.04108804298765</v>
+        <v>1.037728958888314</v>
       </c>
       <c r="E5">
-        <v>1.007782810775541</v>
+        <v>1.023303834525644</v>
       </c>
       <c r="F5">
-        <v>1.014215776057868</v>
+        <v>1.036142501282212</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051070275220726</v>
+        <v>1.036274179272664</v>
       </c>
       <c r="J5">
-        <v>1.021054654373308</v>
+        <v>1.027115271431206</v>
       </c>
       <c r="K5">
-        <v>1.050501808133451</v>
+        <v>1.040156877391249</v>
       </c>
       <c r="L5">
-        <v>1.017565935847243</v>
+        <v>1.025767847997382</v>
       </c>
       <c r="M5">
-        <v>1.023925228403669</v>
+        <v>1.03857433652289</v>
       </c>
       <c r="N5">
-        <v>1.011021169880616</v>
+        <v>1.013113581610843</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002334316945321</v>
+        <v>1.022655020080138</v>
       </c>
       <c r="D6">
-        <v>1.041207886450452</v>
+        <v>1.037754272294609</v>
       </c>
       <c r="E6">
-        <v>1.007920585766446</v>
+        <v>1.023335885653338</v>
       </c>
       <c r="F6">
-        <v>1.014432029344499</v>
+        <v>1.036192653135156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051126501781116</v>
+        <v>1.036283290179931</v>
       </c>
       <c r="J6">
-        <v>1.021148695584879</v>
+        <v>1.027136561710211</v>
       </c>
       <c r="K6">
-        <v>1.050584647261234</v>
+        <v>1.040173439556827</v>
       </c>
       <c r="L6">
-        <v>1.017664812285543</v>
+        <v>1.025790993465263</v>
       </c>
       <c r="M6">
-        <v>1.024102037028539</v>
+        <v>1.038615661053875</v>
       </c>
       <c r="N6">
-        <v>1.011052557560399</v>
+        <v>1.01312065237963</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001130949545673</v>
+        <v>1.022394437982131</v>
       </c>
       <c r="D7">
-        <v>1.040381065190275</v>
+        <v>1.037580199238811</v>
       </c>
       <c r="E7">
-        <v>1.006970629133497</v>
+        <v>1.023115556756996</v>
       </c>
       <c r="F7">
-        <v>1.012940236251138</v>
+        <v>1.035847847061711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050737636446842</v>
+        <v>1.036220531171866</v>
       </c>
       <c r="J7">
-        <v>1.020499689580661</v>
+        <v>1.026990146387581</v>
       </c>
       <c r="K7">
-        <v>1.050012534750681</v>
+        <v>1.040059484420983</v>
       </c>
       <c r="L7">
-        <v>1.016982673099896</v>
+        <v>1.025631846879809</v>
       </c>
       <c r="M7">
-        <v>1.022882003094661</v>
+        <v>1.038331505412127</v>
       </c>
       <c r="N7">
-        <v>1.010835934848052</v>
+        <v>1.01307202371974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9960019636313502</v>
+        <v>1.021306071200111</v>
       </c>
       <c r="D8">
-        <v>1.036855079305177</v>
+        <v>1.036852283434038</v>
       </c>
       <c r="E8">
-        <v>1.002933783661843</v>
+        <v>1.02219614116701</v>
       </c>
       <c r="F8">
-        <v>1.006581724639699</v>
+        <v>1.034407803184389</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049055506968472</v>
+        <v>1.035955456504621</v>
       </c>
       <c r="J8">
-        <v>1.017726779512352</v>
+        <v>1.026377679205355</v>
       </c>
       <c r="K8">
-        <v>1.047557935788826</v>
+        <v>1.039581421536885</v>
       </c>
       <c r="L8">
-        <v>1.014074161097445</v>
+        <v>1.024966797943518</v>
       </c>
       <c r="M8">
-        <v>1.017673274293044</v>
+        <v>1.03714377745012</v>
       </c>
       <c r="N8">
-        <v>1.009910239038911</v>
+        <v>1.012868549189484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9865635265638861</v>
+        <v>1.019391422312717</v>
       </c>
       <c r="D9">
-        <v>1.030363903057818</v>
+        <v>1.035568518601576</v>
       </c>
       <c r="E9">
-        <v>0.995553877837749</v>
+        <v>1.020581857943989</v>
       </c>
       <c r="F9">
-        <v>0.9948761882239893</v>
+        <v>1.031874791523706</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04586816926793</v>
+        <v>1.03547803749739</v>
       </c>
       <c r="J9">
-        <v>1.012599849609534</v>
+        <v>1.025296708817325</v>
       </c>
       <c r="K9">
-        <v>1.042982833368459</v>
+        <v>1.038732504569814</v>
       </c>
       <c r="L9">
-        <v>1.008719504517551</v>
+        <v>1.023795565856398</v>
       </c>
       <c r="M9">
-        <v>1.008052946332974</v>
+        <v>1.035050885246921</v>
       </c>
       <c r="N9">
-        <v>1.008198204059171</v>
+        <v>1.012509216061472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.979974673200575</v>
+        <v>1.018117213780572</v>
       </c>
       <c r="D10">
-        <v>1.025835405278356</v>
+        <v>1.034712052356164</v>
       </c>
       <c r="E10">
-        <v>0.9904376267757489</v>
+        <v>1.019509690926737</v>
       </c>
       <c r="F10">
-        <v>0.9866977753804775</v>
+        <v>1.030189202715895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043583699303571</v>
+        <v>1.035152862967282</v>
       </c>
       <c r="J10">
-        <v>1.009005968174898</v>
+        <v>1.024574960910227</v>
       </c>
       <c r="K10">
-        <v>1.039753351994047</v>
+        <v>1.038162258935866</v>
       </c>
       <c r="L10">
-        <v>1.004981706195351</v>
+        <v>1.023015260914925</v>
       </c>
       <c r="M10">
-        <v>1.001311432212654</v>
+        <v>1.033655691868395</v>
       </c>
       <c r="N10">
-        <v>1.006997913240613</v>
+        <v>1.012269154525859</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9770447142438767</v>
+        <v>1.017566011047986</v>
       </c>
       <c r="D11">
-        <v>1.023823430877782</v>
+        <v>1.034341067522891</v>
       </c>
       <c r="E11">
-        <v>0.9881715547005722</v>
+        <v>1.019046404063131</v>
       </c>
       <c r="F11">
-        <v>0.9830583741233475</v>
+        <v>1.029460063798771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042554353008926</v>
+        <v>1.035010432881533</v>
       </c>
       <c r="J11">
-        <v>1.00740465401093</v>
+        <v>1.024262187196772</v>
       </c>
       <c r="K11">
-        <v>1.038309635221197</v>
+        <v>1.037914331931663</v>
       </c>
       <c r="L11">
-        <v>1.003320039611095</v>
+        <v>1.022677516675463</v>
       </c>
       <c r="M11">
-        <v>0.9983070165586656</v>
+        <v>1.033051582521949</v>
       </c>
       <c r="N11">
-        <v>1.006463090771819</v>
+        <v>1.012165089709134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9759442350328557</v>
+        <v>1.017361351901742</v>
       </c>
       <c r="D12">
-        <v>1.023068105719818</v>
+        <v>1.034203249602791</v>
       </c>
       <c r="E12">
-        <v>0.9873218412968472</v>
+        <v>1.018874465764092</v>
       </c>
       <c r="F12">
-        <v>0.9816909549853206</v>
+        <v>1.029189339682342</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042165764164924</v>
+        <v>1.034957284248851</v>
       </c>
       <c r="J12">
-        <v>1.006802761507787</v>
+        <v>1.02414597220076</v>
       </c>
       <c r="K12">
-        <v>1.037766311317414</v>
+        <v>1.037822090783439</v>
       </c>
       <c r="L12">
-        <v>1.002696033428317</v>
+        <v>1.022552084508754</v>
       </c>
       <c r="M12">
-        <v>0.9971775395638971</v>
+        <v>1.032827192827492</v>
       </c>
       <c r="N12">
-        <v>1.006262065644058</v>
+        <v>1.012126418244136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9761808520291603</v>
+        <v>1.017405248248203</v>
       </c>
       <c r="D13">
-        <v>1.023230492213293</v>
+        <v>1.034232812783831</v>
       </c>
       <c r="E13">
-        <v>0.9875044757232587</v>
+        <v>1.018911340432674</v>
       </c>
       <c r="F13">
-        <v>0.9819849904646506</v>
+        <v>1.029247405913273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042249403876738</v>
+        <v>1.034968695829687</v>
       </c>
       <c r="J13">
-        <v>1.006932195699674</v>
+        <v>1.024170902366821</v>
       </c>
       <c r="K13">
-        <v>1.03788318000506</v>
+        <v>1.037841883591501</v>
       </c>
       <c r="L13">
-        <v>1.002830197177494</v>
+        <v>1.022578989162541</v>
       </c>
       <c r="M13">
-        <v>0.9974204388556748</v>
+        <v>1.032875325014131</v>
       </c>
       <c r="N13">
-        <v>1.006305295086628</v>
+        <v>1.012134714175383</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9769540000145845</v>
+        <v>1.017549092177151</v>
       </c>
       <c r="D14">
-        <v>1.023761160285698</v>
+        <v>1.034329675800042</v>
       </c>
       <c r="E14">
-        <v>0.9881014824457692</v>
+        <v>1.019032188580509</v>
       </c>
       <c r="F14">
-        <v>0.9829456658336685</v>
+        <v>1.029437683400667</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042522360774258</v>
+        <v>1.035006044567292</v>
       </c>
       <c r="J14">
-        <v>1.00735504795998</v>
+        <v>1.024252581576386</v>
       </c>
       <c r="K14">
-        <v>1.038264869505029</v>
+        <v>1.037906710302708</v>
       </c>
       <c r="L14">
-        <v>1.00326859938338</v>
+        <v>1.022667147976972</v>
       </c>
       <c r="M14">
-        <v>0.9982139332535237</v>
+        <v>1.033033034326542</v>
       </c>
       <c r="N14">
-        <v>1.00644652289355</v>
+        <v>1.012161893461738</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9774287317299527</v>
+        <v>1.017637730084993</v>
       </c>
       <c r="D15">
-        <v>1.024087054266473</v>
+        <v>1.034389354017845</v>
       </c>
       <c r="E15">
-        <v>0.9884682471466243</v>
+        <v>1.019106666647655</v>
       </c>
       <c r="F15">
-        <v>0.9835354783532845</v>
+        <v>1.029554934304857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042689704619914</v>
+        <v>1.035029024079023</v>
       </c>
       <c r="J15">
-        <v>1.007614631623097</v>
+        <v>1.02430290197068</v>
       </c>
       <c r="K15">
-        <v>1.038499097220001</v>
+        <v>1.037946632337337</v>
       </c>
       <c r="L15">
-        <v>1.003537804426975</v>
+        <v>1.022721468358804</v>
       </c>
       <c r="M15">
-        <v>0.9987010206129676</v>
+        <v>1.033130204710113</v>
       </c>
       <c r="N15">
-        <v>1.006533221044836</v>
+        <v>1.012178637254092</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9801674533367264</v>
+        <v>1.018153806733129</v>
       </c>
       <c r="D16">
-        <v>1.025967830615666</v>
+        <v>1.034736670826597</v>
       </c>
       <c r="E16">
-        <v>0.9905869187366083</v>
+        <v>1.019540458289074</v>
       </c>
       <c r="F16">
-        <v>0.9869371728743112</v>
+        <v>1.030237608736539</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043651149910569</v>
+        <v>1.035162281359103</v>
       </c>
       <c r="J16">
-        <v>1.009111264965763</v>
+        <v>1.024595713442175</v>
       </c>
       <c r="K16">
-        <v>1.039848190451532</v>
+        <v>1.03817869192779</v>
       </c>
       <c r="L16">
-        <v>1.005091050494932</v>
+        <v>1.02303767878346</v>
       </c>
       <c r="M16">
-        <v>1.001508970625963</v>
+        <v>1.033695785060845</v>
       </c>
       <c r="N16">
-        <v>1.007033081247283</v>
+        <v>1.012276058539171</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9818643686097392</v>
+        <v>1.018477672903959</v>
       </c>
       <c r="D17">
-        <v>1.027133696547273</v>
+        <v>1.03495450013449</v>
       </c>
       <c r="E17">
-        <v>0.9919020731234111</v>
+        <v>1.019812824730042</v>
       </c>
       <c r="F17">
-        <v>0.9890441247014738</v>
+        <v>1.030666028774188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044243343787028</v>
+        <v>1.035245434957867</v>
       </c>
       <c r="J17">
-        <v>1.010037764864618</v>
+        <v>1.024779319526798</v>
       </c>
       <c r="K17">
-        <v>1.040682131356834</v>
+        <v>1.038323988092785</v>
       </c>
       <c r="L17">
-        <v>1.006053593927632</v>
+        <v>1.023236065605702</v>
       </c>
       <c r="M17">
-        <v>1.00324701629773</v>
+        <v>1.03405056408828</v>
       </c>
       <c r="N17">
-        <v>1.007342521221407</v>
+        <v>1.012337137376175</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9828467695279192</v>
+        <v>1.018666630383346</v>
       </c>
       <c r="D18">
-        <v>1.027808817483155</v>
+        <v>1.035081543689423</v>
       </c>
       <c r="E18">
-        <v>0.9926643150759114</v>
+        <v>1.019971784811738</v>
       </c>
       <c r="F18">
-        <v>0.9902636695746246</v>
+        <v>1.030915989540012</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044584900975913</v>
+        <v>1.035293779978391</v>
       </c>
       <c r="J18">
-        <v>1.010573843336841</v>
+        <v>1.02488638946039</v>
       </c>
       <c r="K18">
-        <v>1.041164199207009</v>
+        <v>1.038408639654358</v>
       </c>
       <c r="L18">
-        <v>1.006610884896536</v>
+        <v>1.023351794036205</v>
       </c>
       <c r="M18">
-        <v>1.004252608141263</v>
+        <v>1.034257502444763</v>
       </c>
       <c r="N18">
-        <v>1.007521563681791</v>
+        <v>1.012372752355485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9831805085431543</v>
+        <v>1.018731068751981</v>
       </c>
       <c r="D19">
-        <v>1.028038192745516</v>
+        <v>1.035124860067647</v>
       </c>
       <c r="E19">
-        <v>0.9929234056666233</v>
+        <v>1.020026001877094</v>
       </c>
       <c r="F19">
-        <v>0.990677932411237</v>
+        <v>1.031001231661141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044700714691485</v>
+        <v>1.035310237717366</v>
       </c>
       <c r="J19">
-        <v>1.01075590637055</v>
+        <v>1.024922893374641</v>
       </c>
       <c r="K19">
-        <v>1.041327840487078</v>
+        <v>1.038437487118643</v>
       </c>
       <c r="L19">
-        <v>1.006800212634937</v>
+        <v>1.023391256569801</v>
       </c>
       <c r="M19">
-        <v>1.004594121494962</v>
+        <v>1.034328063354895</v>
       </c>
       <c r="N19">
-        <v>1.007582369787863</v>
+        <v>1.012384894220084</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9816830733436691</v>
+        <v>1.018442919759573</v>
       </c>
       <c r="D20">
-        <v>1.027009120103022</v>
+        <v>1.034931130401086</v>
       </c>
       <c r="E20">
-        <v>0.991761475392228</v>
+        <v>1.019783592722222</v>
       </c>
       <c r="F20">
-        <v>0.9888190473822178</v>
+        <v>1.030620056051541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04418020767241</v>
+        <v>1.035236529604501</v>
       </c>
       <c r="J20">
-        <v>1.009938810586684</v>
+        <v>1.024759622847263</v>
       </c>
       <c r="K20">
-        <v>1.040593109704255</v>
+        <v>1.038308409237583</v>
       </c>
       <c r="L20">
-        <v>1.005950752919047</v>
+        <v>1.02321477925002</v>
       </c>
       <c r="M20">
-        <v>1.003061391446146</v>
+        <v>1.034012499470438</v>
       </c>
       <c r="N20">
-        <v>1.007309471791666</v>
+        <v>1.012330585358436</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9767266679730244</v>
+        <v>1.017506731448999</v>
       </c>
       <c r="D21">
-        <v>1.023605114870279</v>
+        <v>1.034301152528482</v>
       </c>
       <c r="E21">
-        <v>0.9879259026414069</v>
+        <v>1.018996597740678</v>
       </c>
       <c r="F21">
-        <v>0.9826632081590092</v>
+        <v>1.029381648367277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042442155894728</v>
+        <v>1.034995053017939</v>
       </c>
       <c r="J21">
-        <v>1.007230726918449</v>
+        <v>1.024228530096205</v>
       </c>
       <c r="K21">
-        <v>1.038152668553005</v>
+        <v>1.037887624583266</v>
       </c>
       <c r="L21">
-        <v>1.003139690806743</v>
+        <v>1.022641186812573</v>
       </c>
       <c r="M21">
-        <v>0.9979806474610274</v>
+        <v>1.032986592765569</v>
       </c>
       <c r="N21">
-        <v>1.006405001047717</v>
+        <v>1.012153890310127</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9735396855010935</v>
+        <v>1.016918588281909</v>
       </c>
       <c r="D22">
-        <v>1.021418495920472</v>
+        <v>1.033904959287096</v>
       </c>
       <c r="E22">
-        <v>0.9854678748457173</v>
+        <v>1.018502634430601</v>
       </c>
       <c r="F22">
-        <v>0.9787021625994872</v>
+        <v>1.028603652139561</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041313134213716</v>
+        <v>1.034841817164099</v>
       </c>
       <c r="J22">
-        <v>1.005486839017842</v>
+        <v>1.023894397915872</v>
       </c>
       <c r="K22">
-        <v>1.03657726342691</v>
+        <v>1.037622193218315</v>
       </c>
       <c r="L22">
-        <v>1.001332819514408</v>
+        <v>1.022280669001472</v>
       </c>
       <c r="M22">
-        <v>0.9947076791797619</v>
+        <v>1.032341584568701</v>
       </c>
       <c r="N22">
-        <v>1.005822567211281</v>
+        <v>1.012042696022412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9752360779455145</v>
+        <v>1.017230328599854</v>
       </c>
       <c r="D23">
-        <v>1.022582169582345</v>
+        <v>1.034114997812366</v>
       </c>
       <c r="E23">
-        <v>0.986775456809918</v>
+        <v>1.018764412479156</v>
       </c>
       <c r="F23">
-        <v>0.9808108765599328</v>
+        <v>1.029016021828541</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041915159196099</v>
+        <v>1.034923183789838</v>
       </c>
       <c r="J23">
-        <v>1.006415322524667</v>
+        <v>1.024071547583578</v>
       </c>
       <c r="K23">
-        <v>1.037416390866196</v>
+        <v>1.037762985204756</v>
       </c>
       <c r="L23">
-        <v>1.002294521417391</v>
+        <v>1.022471774331532</v>
       </c>
       <c r="M23">
-        <v>0.9964504256280615</v>
+        <v>1.032683513507544</v>
       </c>
       <c r="N23">
-        <v>1.006132666069504</v>
+        <v>1.012101651492372</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9817650156365889</v>
+        <v>1.018458623049594</v>
       </c>
       <c r="D24">
-        <v>1.027065425983794</v>
+        <v>1.034941690216807</v>
       </c>
       <c r="E24">
-        <v>0.9918250204634476</v>
+        <v>1.019796801120045</v>
       </c>
       <c r="F24">
-        <v>0.9889207791354101</v>
+        <v>1.030640828927825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044208748076559</v>
+        <v>1.035240554035743</v>
       </c>
       <c r="J24">
-        <v>1.009983537133929</v>
+        <v>1.024768523004368</v>
       </c>
       <c r="K24">
-        <v>1.040633348199589</v>
+        <v>1.038315448952241</v>
       </c>
       <c r="L24">
-        <v>1.005997235129493</v>
+        <v>1.023224397598609</v>
       </c>
       <c r="M24">
-        <v>1.00314529255733</v>
+        <v>1.034029699227333</v>
       </c>
       <c r="N24">
-        <v>1.00732440987578</v>
+        <v>1.012333545968093</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.989053757158422</v>
+        <v>1.019886018626009</v>
       </c>
       <c r="D25">
-        <v>1.032076373631403</v>
+        <v>1.035900520123147</v>
       </c>
       <c r="E25">
-        <v>0.997495042642959</v>
+        <v>1.020998486724425</v>
       </c>
       <c r="F25">
-        <v>0.997965470023651</v>
+        <v>1.03252909484129</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046719565736721</v>
+        <v>1.035602680427703</v>
       </c>
       <c r="J25">
-        <v>1.013955206238098</v>
+        <v>1.025576363927272</v>
       </c>
       <c r="K25">
-        <v>1.044196346064034</v>
+        <v>1.038952733534086</v>
       </c>
       <c r="L25">
-        <v>1.010132369708712</v>
+        <v>1.024098271263794</v>
       </c>
       <c r="M25">
-        <v>1.010595451766666</v>
+        <v>1.035591939256273</v>
       </c>
       <c r="N25">
-        <v>1.008650840401938</v>
+        <v>1.012602203079232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021026094879971</v>
+        <v>0.9946553178742087</v>
       </c>
       <c r="D2">
-        <v>1.036664810600258</v>
+        <v>1.035928976031298</v>
       </c>
       <c r="E2">
-        <v>1.021959839254618</v>
+        <v>1.001877046617206</v>
       </c>
       <c r="F2">
-        <v>1.03403738294863</v>
+        <v>1.004912088979208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035886513026745</v>
+        <v>1.048607637732251</v>
       </c>
       <c r="J2">
-        <v>1.02621988583449</v>
+        <v>1.016997071149472</v>
       </c>
       <c r="K2">
-        <v>1.039457903987421</v>
+        <v>1.046909466800548</v>
       </c>
       <c r="L2">
-        <v>1.024795630086122</v>
+        <v>1.01331029299496</v>
       </c>
       <c r="M2">
-        <v>1.036838008525988</v>
+        <v>1.016303412173043</v>
       </c>
       <c r="N2">
-        <v>1.012816112434217</v>
+        <v>1.009666599339305</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021854791337615</v>
+        <v>0.9986087350655004</v>
       </c>
       <c r="D3">
-        <v>1.037219448476655</v>
+        <v>1.038647457076206</v>
       </c>
       <c r="E3">
-        <v>1.022659515899911</v>
+        <v>1.004983070909453</v>
       </c>
       <c r="F3">
-        <v>1.035133808882917</v>
+        <v>1.009813477951685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036089687960619</v>
+        <v>1.049915281801935</v>
       </c>
       <c r="J3">
-        <v>1.026686652994488</v>
+        <v>1.019137399354675</v>
       </c>
       <c r="K3">
-        <v>1.039822866599263</v>
+        <v>1.048808610362063</v>
       </c>
       <c r="L3">
-        <v>1.025302163328352</v>
+        <v>1.01555258700164</v>
       </c>
       <c r="M3">
-        <v>1.037742773187417</v>
+        <v>1.020322314653527</v>
       </c>
       <c r="N3">
-        <v>1.012971208126736</v>
+        <v>1.010381184634427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022391422593479</v>
+        <v>1.00111696928151</v>
       </c>
       <c r="D4">
-        <v>1.037578184431018</v>
+        <v>1.040371458249931</v>
       </c>
       <c r="E4">
-        <v>1.023113007619875</v>
+        <v>1.006959599320935</v>
       </c>
       <c r="F4">
-        <v>1.035843857112496</v>
+        <v>1.012922905219751</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036219803321524</v>
+        <v>1.050733105236469</v>
       </c>
       <c r="J4">
-        <v>1.026988451592246</v>
+        <v>1.020492145962964</v>
       </c>
       <c r="K4">
-        <v>1.040058164602893</v>
+        <v>1.050005879247288</v>
       </c>
       <c r="L4">
-        <v>1.025630005086323</v>
+        <v>1.016974747586948</v>
       </c>
       <c r="M4">
-        <v>1.038328216743912</v>
+        <v>1.022867824560354</v>
       </c>
       <c r="N4">
-        <v>1.013071460799079</v>
+        <v>1.010833416872738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022617119026455</v>
+        <v>1.0021598751485</v>
       </c>
       <c r="D5">
-        <v>1.037728958888314</v>
+        <v>1.04108804298765</v>
       </c>
       <c r="E5">
-        <v>1.023303834525644</v>
+        <v>1.00778281077554</v>
       </c>
       <c r="F5">
-        <v>1.036142501282212</v>
+        <v>1.014215776057868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036274179272664</v>
+        <v>1.051070275220726</v>
       </c>
       <c r="J5">
-        <v>1.027115271431206</v>
+        <v>1.021054654373308</v>
       </c>
       <c r="K5">
-        <v>1.040156877391249</v>
+        <v>1.050501808133451</v>
       </c>
       <c r="L5">
-        <v>1.025767847997382</v>
+        <v>1.017565935847242</v>
       </c>
       <c r="M5">
-        <v>1.03857433652289</v>
+        <v>1.023925228403669</v>
       </c>
       <c r="N5">
-        <v>1.013113581610843</v>
+        <v>1.011021169880616</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022655020080138</v>
+        <v>1.002334316945321</v>
       </c>
       <c r="D6">
-        <v>1.037754272294609</v>
+        <v>1.041207886450452</v>
       </c>
       <c r="E6">
-        <v>1.023335885653338</v>
+        <v>1.007920585766446</v>
       </c>
       <c r="F6">
-        <v>1.036192653135156</v>
+        <v>1.014432029344499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036283290179931</v>
+        <v>1.051126501781116</v>
       </c>
       <c r="J6">
-        <v>1.027136561710211</v>
+        <v>1.021148695584879</v>
       </c>
       <c r="K6">
-        <v>1.040173439556827</v>
+        <v>1.050584647261234</v>
       </c>
       <c r="L6">
-        <v>1.025790993465263</v>
+        <v>1.017664812285543</v>
       </c>
       <c r="M6">
-        <v>1.038615661053875</v>
+        <v>1.024102037028539</v>
       </c>
       <c r="N6">
-        <v>1.01312065237963</v>
+        <v>1.011052557560399</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022394437982131</v>
+        <v>1.001130949545672</v>
       </c>
       <c r="D7">
-        <v>1.037580199238811</v>
+        <v>1.040381065190275</v>
       </c>
       <c r="E7">
-        <v>1.023115556756996</v>
+        <v>1.006970629133496</v>
       </c>
       <c r="F7">
-        <v>1.035847847061711</v>
+        <v>1.012940236251138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036220531171866</v>
+        <v>1.050737636446842</v>
       </c>
       <c r="J7">
-        <v>1.026990146387581</v>
+        <v>1.020499689580661</v>
       </c>
       <c r="K7">
-        <v>1.040059484420983</v>
+        <v>1.050012534750681</v>
       </c>
       <c r="L7">
-        <v>1.025631846879809</v>
+        <v>1.016982673099895</v>
       </c>
       <c r="M7">
-        <v>1.038331505412127</v>
+        <v>1.022882003094661</v>
       </c>
       <c r="N7">
-        <v>1.01307202371974</v>
+        <v>1.010835934848052</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021306071200111</v>
+        <v>0.9960019636313496</v>
       </c>
       <c r="D8">
-        <v>1.036852283434038</v>
+        <v>1.036855079305177</v>
       </c>
       <c r="E8">
-        <v>1.02219614116701</v>
+        <v>1.002933783661843</v>
       </c>
       <c r="F8">
-        <v>1.034407803184389</v>
+        <v>1.006581724639699</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035955456504621</v>
+        <v>1.049055506968472</v>
       </c>
       <c r="J8">
-        <v>1.026377679205355</v>
+        <v>1.017726779512351</v>
       </c>
       <c r="K8">
-        <v>1.039581421536885</v>
+        <v>1.047557935788827</v>
       </c>
       <c r="L8">
-        <v>1.024966797943518</v>
+        <v>1.014074161097444</v>
       </c>
       <c r="M8">
-        <v>1.03714377745012</v>
+        <v>1.017673274293044</v>
       </c>
       <c r="N8">
-        <v>1.012868549189484</v>
+        <v>1.009910239038911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019391422312717</v>
+        <v>0.9865635265638861</v>
       </c>
       <c r="D9">
-        <v>1.035568518601576</v>
+        <v>1.030363903057818</v>
       </c>
       <c r="E9">
-        <v>1.020581857943989</v>
+        <v>0.9955538778377493</v>
       </c>
       <c r="F9">
-        <v>1.031874791523706</v>
+        <v>0.9948761882239895</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03547803749739</v>
+        <v>1.04586816926793</v>
       </c>
       <c r="J9">
-        <v>1.025296708817325</v>
+        <v>1.012599849609534</v>
       </c>
       <c r="K9">
-        <v>1.038732504569814</v>
+        <v>1.042982833368458</v>
       </c>
       <c r="L9">
-        <v>1.023795565856398</v>
+        <v>1.008719504517551</v>
       </c>
       <c r="M9">
-        <v>1.035050885246921</v>
+        <v>1.008052946332974</v>
       </c>
       <c r="N9">
-        <v>1.012509216061472</v>
+        <v>1.008198204059171</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018117213780572</v>
+        <v>0.9799746732005744</v>
       </c>
       <c r="D10">
-        <v>1.034712052356164</v>
+        <v>1.025835405278356</v>
       </c>
       <c r="E10">
-        <v>1.019509690926737</v>
+        <v>0.9904376267757484</v>
       </c>
       <c r="F10">
-        <v>1.030189202715895</v>
+        <v>0.9866977753804773</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035152862967282</v>
+        <v>1.043583699303571</v>
       </c>
       <c r="J10">
-        <v>1.024574960910227</v>
+        <v>1.009005968174898</v>
       </c>
       <c r="K10">
-        <v>1.038162258935866</v>
+        <v>1.039753351994047</v>
       </c>
       <c r="L10">
-        <v>1.023015260914925</v>
+        <v>1.00498170619535</v>
       </c>
       <c r="M10">
-        <v>1.033655691868395</v>
+        <v>1.001311432212654</v>
       </c>
       <c r="N10">
-        <v>1.012269154525859</v>
+        <v>1.006997913240613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.017566011047986</v>
+        <v>0.9770447142438762</v>
       </c>
       <c r="D11">
-        <v>1.034341067522891</v>
+        <v>1.023823430877782</v>
       </c>
       <c r="E11">
-        <v>1.019046404063131</v>
+        <v>0.9881715547005716</v>
       </c>
       <c r="F11">
-        <v>1.029460063798771</v>
+        <v>0.9830583741233471</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035010432881533</v>
+        <v>1.042554353008926</v>
       </c>
       <c r="J11">
-        <v>1.024262187196772</v>
+        <v>1.00740465401093</v>
       </c>
       <c r="K11">
-        <v>1.037914331931663</v>
+        <v>1.038309635221197</v>
       </c>
       <c r="L11">
-        <v>1.022677516675463</v>
+        <v>1.003320039611094</v>
       </c>
       <c r="M11">
-        <v>1.033051582521949</v>
+        <v>0.9983070165586654</v>
       </c>
       <c r="N11">
-        <v>1.012165089709134</v>
+        <v>1.006463090771819</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017361351901742</v>
+        <v>0.975944235032856</v>
       </c>
       <c r="D12">
-        <v>1.034203249602791</v>
+        <v>1.023068105719819</v>
       </c>
       <c r="E12">
-        <v>1.018874465764092</v>
+        <v>0.9873218412968475</v>
       </c>
       <c r="F12">
-        <v>1.029189339682342</v>
+        <v>0.9816909549853213</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034957284248851</v>
+        <v>1.042165764164925</v>
       </c>
       <c r="J12">
-        <v>1.02414597220076</v>
+        <v>1.006802761507787</v>
       </c>
       <c r="K12">
-        <v>1.037822090783439</v>
+        <v>1.037766311317414</v>
       </c>
       <c r="L12">
-        <v>1.022552084508754</v>
+        <v>1.002696033428317</v>
       </c>
       <c r="M12">
-        <v>1.032827192827492</v>
+        <v>0.9971775395638977</v>
       </c>
       <c r="N12">
-        <v>1.012126418244136</v>
+        <v>1.006262065644058</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017405248248203</v>
+        <v>0.9761808520291605</v>
       </c>
       <c r="D13">
-        <v>1.034232812783831</v>
+        <v>1.023230492213293</v>
       </c>
       <c r="E13">
-        <v>1.018911340432674</v>
+        <v>0.9875044757232586</v>
       </c>
       <c r="F13">
-        <v>1.029247405913273</v>
+        <v>0.9819849904646502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034968695829687</v>
+        <v>1.042249403876738</v>
       </c>
       <c r="J13">
-        <v>1.024170902366821</v>
+        <v>1.006932195699674</v>
       </c>
       <c r="K13">
-        <v>1.037841883591501</v>
+        <v>1.03788318000506</v>
       </c>
       <c r="L13">
-        <v>1.022578989162541</v>
+        <v>1.002830197177494</v>
       </c>
       <c r="M13">
-        <v>1.032875325014131</v>
+        <v>0.9974204388556743</v>
       </c>
       <c r="N13">
-        <v>1.012134714175383</v>
+        <v>1.006305295086628</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017549092177151</v>
+        <v>0.9769540000145842</v>
       </c>
       <c r="D14">
-        <v>1.034329675800042</v>
+        <v>1.023761160285698</v>
       </c>
       <c r="E14">
-        <v>1.019032188580509</v>
+        <v>0.9881014824457689</v>
       </c>
       <c r="F14">
-        <v>1.029437683400667</v>
+        <v>0.9829456658336688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035006044567292</v>
+        <v>1.042522360774258</v>
       </c>
       <c r="J14">
-        <v>1.024252581576386</v>
+        <v>1.00735504795998</v>
       </c>
       <c r="K14">
-        <v>1.037906710302708</v>
+        <v>1.038264869505029</v>
       </c>
       <c r="L14">
-        <v>1.022667147976972</v>
+        <v>1.00326859938338</v>
       </c>
       <c r="M14">
-        <v>1.033033034326542</v>
+        <v>0.998213933253524</v>
       </c>
       <c r="N14">
-        <v>1.012161893461738</v>
+        <v>1.00644652289355</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017637730084993</v>
+        <v>0.9774287317299517</v>
       </c>
       <c r="D15">
-        <v>1.034389354017845</v>
+        <v>1.024087054266472</v>
       </c>
       <c r="E15">
-        <v>1.019106666647655</v>
+        <v>0.9884682471466233</v>
       </c>
       <c r="F15">
-        <v>1.029554934304857</v>
+        <v>0.9835354783532835</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035029024079023</v>
+        <v>1.042689704619914</v>
       </c>
       <c r="J15">
-        <v>1.02430290197068</v>
+        <v>1.007614631623096</v>
       </c>
       <c r="K15">
-        <v>1.037946632337337</v>
+        <v>1.038499097220001</v>
       </c>
       <c r="L15">
-        <v>1.022721468358804</v>
+        <v>1.003537804426974</v>
       </c>
       <c r="M15">
-        <v>1.033130204710113</v>
+        <v>0.9987010206129666</v>
       </c>
       <c r="N15">
-        <v>1.012178637254092</v>
+        <v>1.006533221044835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018153806733129</v>
+        <v>0.9801674533367255</v>
       </c>
       <c r="D16">
-        <v>1.034736670826597</v>
+        <v>1.025967830615665</v>
       </c>
       <c r="E16">
-        <v>1.019540458289074</v>
+        <v>0.9905869187366074</v>
       </c>
       <c r="F16">
-        <v>1.030237608736539</v>
+        <v>0.9869371728743102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035162281359103</v>
+        <v>1.043651149910568</v>
       </c>
       <c r="J16">
-        <v>1.024595713442175</v>
+        <v>1.009111264965762</v>
       </c>
       <c r="K16">
-        <v>1.03817869192779</v>
+        <v>1.039848190451532</v>
       </c>
       <c r="L16">
-        <v>1.02303767878346</v>
+        <v>1.005091050494931</v>
       </c>
       <c r="M16">
-        <v>1.033695785060845</v>
+        <v>1.001508970625963</v>
       </c>
       <c r="N16">
-        <v>1.012276058539171</v>
+        <v>1.007033081247283</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018477672903959</v>
+        <v>0.9818643686097384</v>
       </c>
       <c r="D17">
-        <v>1.03495450013449</v>
+        <v>1.027133696547273</v>
       </c>
       <c r="E17">
-        <v>1.019812824730042</v>
+        <v>0.9919020731234103</v>
       </c>
       <c r="F17">
-        <v>1.030666028774188</v>
+        <v>0.9890441247014733</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035245434957867</v>
+        <v>1.044243343787027</v>
       </c>
       <c r="J17">
-        <v>1.024779319526798</v>
+        <v>1.010037764864618</v>
       </c>
       <c r="K17">
-        <v>1.038323988092785</v>
+        <v>1.040682131356834</v>
       </c>
       <c r="L17">
-        <v>1.023236065605702</v>
+        <v>1.006053593927632</v>
       </c>
       <c r="M17">
-        <v>1.03405056408828</v>
+        <v>1.00324701629773</v>
       </c>
       <c r="N17">
-        <v>1.012337137376175</v>
+        <v>1.007342521221407</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018666630383346</v>
+        <v>0.9828467695279187</v>
       </c>
       <c r="D18">
-        <v>1.035081543689423</v>
+        <v>1.027808817483156</v>
       </c>
       <c r="E18">
-        <v>1.019971784811738</v>
+        <v>0.992664315075911</v>
       </c>
       <c r="F18">
-        <v>1.030915989540012</v>
+        <v>0.9902636695746246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035293779978391</v>
+        <v>1.044584900975913</v>
       </c>
       <c r="J18">
-        <v>1.02488638946039</v>
+        <v>1.010573843336841</v>
       </c>
       <c r="K18">
-        <v>1.038408639654358</v>
+        <v>1.041164199207009</v>
       </c>
       <c r="L18">
-        <v>1.023351794036205</v>
+        <v>1.006610884896536</v>
       </c>
       <c r="M18">
-        <v>1.034257502444763</v>
+        <v>1.004252608141263</v>
       </c>
       <c r="N18">
-        <v>1.012372752355485</v>
+        <v>1.007521563681791</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018731068751981</v>
+        <v>0.9831805085431541</v>
       </c>
       <c r="D19">
-        <v>1.035124860067647</v>
+        <v>1.028038192745516</v>
       </c>
       <c r="E19">
-        <v>1.020026001877094</v>
+        <v>0.9929234056666231</v>
       </c>
       <c r="F19">
-        <v>1.031001231661141</v>
+        <v>0.990677932411237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035310237717366</v>
+        <v>1.044700714691484</v>
       </c>
       <c r="J19">
-        <v>1.024922893374641</v>
+        <v>1.01075590637055</v>
       </c>
       <c r="K19">
-        <v>1.038437487118643</v>
+        <v>1.041327840487077</v>
       </c>
       <c r="L19">
-        <v>1.023391256569801</v>
+        <v>1.006800212634937</v>
       </c>
       <c r="M19">
-        <v>1.034328063354895</v>
+        <v>1.004594121494962</v>
       </c>
       <c r="N19">
-        <v>1.012384894220084</v>
+        <v>1.007582369787863</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018442919759573</v>
+        <v>0.981683073343669</v>
       </c>
       <c r="D20">
-        <v>1.034931130401086</v>
+        <v>1.027009120103022</v>
       </c>
       <c r="E20">
-        <v>1.019783592722222</v>
+        <v>0.9917614753922276</v>
       </c>
       <c r="F20">
-        <v>1.030620056051541</v>
+        <v>0.9888190473822176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035236529604501</v>
+        <v>1.04418020767241</v>
       </c>
       <c r="J20">
-        <v>1.024759622847263</v>
+        <v>1.009938810586684</v>
       </c>
       <c r="K20">
-        <v>1.038308409237583</v>
+        <v>1.040593109704255</v>
       </c>
       <c r="L20">
-        <v>1.02321477925002</v>
+        <v>1.005950752919046</v>
       </c>
       <c r="M20">
-        <v>1.034012499470438</v>
+        <v>1.003061391446145</v>
       </c>
       <c r="N20">
-        <v>1.012330585358436</v>
+        <v>1.007309471791666</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017506731448999</v>
+        <v>0.9767266679730241</v>
       </c>
       <c r="D21">
-        <v>1.034301152528482</v>
+        <v>1.023605114870279</v>
       </c>
       <c r="E21">
-        <v>1.018996597740678</v>
+        <v>0.9879259026414068</v>
       </c>
       <c r="F21">
-        <v>1.029381648367277</v>
+        <v>0.9826632081590091</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034995053017939</v>
+        <v>1.042442155894729</v>
       </c>
       <c r="J21">
-        <v>1.024228530096205</v>
+        <v>1.007230726918448</v>
       </c>
       <c r="K21">
-        <v>1.037887624583266</v>
+        <v>1.038152668553006</v>
       </c>
       <c r="L21">
-        <v>1.022641186812573</v>
+        <v>1.003139690806743</v>
       </c>
       <c r="M21">
-        <v>1.032986592765569</v>
+        <v>0.9979806474610272</v>
       </c>
       <c r="N21">
-        <v>1.012153890310127</v>
+        <v>1.006405001047717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016918588281909</v>
+        <v>0.9735396855010929</v>
       </c>
       <c r="D22">
-        <v>1.033904959287096</v>
+        <v>1.021418495920472</v>
       </c>
       <c r="E22">
-        <v>1.018502634430601</v>
+        <v>0.9854678748457165</v>
       </c>
       <c r="F22">
-        <v>1.028603652139561</v>
+        <v>0.9787021625994865</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034841817164099</v>
+        <v>1.041313134213715</v>
       </c>
       <c r="J22">
-        <v>1.023894397915872</v>
+        <v>1.005486839017841</v>
       </c>
       <c r="K22">
-        <v>1.037622193218315</v>
+        <v>1.036577263426909</v>
       </c>
       <c r="L22">
-        <v>1.022280669001472</v>
+        <v>1.001332819514408</v>
       </c>
       <c r="M22">
-        <v>1.032341584568701</v>
+        <v>0.9947076791797612</v>
       </c>
       <c r="N22">
-        <v>1.012042696022412</v>
+        <v>1.00582256721128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017230328599854</v>
+        <v>0.975236077945514</v>
       </c>
       <c r="D23">
-        <v>1.034114997812366</v>
+        <v>1.022582169582345</v>
       </c>
       <c r="E23">
-        <v>1.018764412479156</v>
+        <v>0.9867754568099176</v>
       </c>
       <c r="F23">
-        <v>1.029016021828541</v>
+        <v>0.9808108765599326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034923183789838</v>
+        <v>1.041915159196099</v>
       </c>
       <c r="J23">
-        <v>1.024071547583578</v>
+        <v>1.006415322524666</v>
       </c>
       <c r="K23">
-        <v>1.037762985204756</v>
+        <v>1.037416390866195</v>
       </c>
       <c r="L23">
-        <v>1.022471774331532</v>
+        <v>1.00229452141739</v>
       </c>
       <c r="M23">
-        <v>1.032683513507544</v>
+        <v>0.9964504256280614</v>
       </c>
       <c r="N23">
-        <v>1.012101651492372</v>
+        <v>1.006132666069504</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018458623049594</v>
+        <v>0.9817650156365885</v>
       </c>
       <c r="D24">
-        <v>1.034941690216807</v>
+        <v>1.027065425983794</v>
       </c>
       <c r="E24">
-        <v>1.019796801120045</v>
+        <v>0.9918250204634472</v>
       </c>
       <c r="F24">
-        <v>1.030640828927825</v>
+        <v>0.9889207791354097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035240554035743</v>
+        <v>1.044208748076559</v>
       </c>
       <c r="J24">
-        <v>1.024768523004368</v>
+        <v>1.009983537133928</v>
       </c>
       <c r="K24">
-        <v>1.038315448952241</v>
+        <v>1.040633348199588</v>
       </c>
       <c r="L24">
-        <v>1.023224397598609</v>
+        <v>1.005997235129492</v>
       </c>
       <c r="M24">
-        <v>1.034029699227333</v>
+        <v>1.00314529255733</v>
       </c>
       <c r="N24">
-        <v>1.012333545968093</v>
+        <v>1.00732440987578</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019886018626009</v>
+        <v>0.9890537571584214</v>
       </c>
       <c r="D25">
-        <v>1.035900520123147</v>
+        <v>1.032076373631403</v>
       </c>
       <c r="E25">
-        <v>1.020998486724425</v>
+        <v>0.9974950426429585</v>
       </c>
       <c r="F25">
-        <v>1.03252909484129</v>
+        <v>0.9979654700236511</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035602680427703</v>
+        <v>1.04671956573672</v>
       </c>
       <c r="J25">
-        <v>1.025576363927272</v>
+        <v>1.013955206238097</v>
       </c>
       <c r="K25">
-        <v>1.038952733534086</v>
+        <v>1.044196346064034</v>
       </c>
       <c r="L25">
-        <v>1.024098271263794</v>
+        <v>1.010132369708711</v>
       </c>
       <c r="M25">
-        <v>1.035591939256273</v>
+        <v>1.010595451766666</v>
       </c>
       <c r="N25">
-        <v>1.012602203079232</v>
+        <v>1.008650840401938</v>
       </c>
     </row>
   </sheetData>
